--- a/data/trans_dic/P1434-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1434-Estudios-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05682930835513341</v>
+        <v>0.05682506645368786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05948689767505745</v>
+        <v>0.06063872721108666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06327043091932315</v>
+        <v>0.06321809465147533</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1067737636285261</v>
+        <v>0.1069858518302822</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08812062609304123</v>
+        <v>0.0880257256823046</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09524945514797892</v>
+        <v>0.09655296977777499</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1017821920082014</v>
+        <v>0.1013092838635821</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1553625294693686</v>
+        <v>0.1573868457717634</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.01907883212124657</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0378613361743288</v>
+        <v>0.03786133617432881</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007882947737769371</v>
+        <v>0.007598834352045204</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0150849149251862</v>
+        <v>0.01465659453138102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01366169876893666</v>
+        <v>0.0134396846715677</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03107641513202989</v>
+        <v>0.0310443239681936</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0188051179670487</v>
+        <v>0.01899922605229684</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02728658183114464</v>
+        <v>0.02786770389413946</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02597141311277506</v>
+        <v>0.02572323684892161</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04523237578720608</v>
+        <v>0.04610016796526</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01044772842513945</v>
+        <v>0.01118638781330826</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008902357673755006</v>
+        <v>0.008853119899607641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005415425484536579</v>
+        <v>0.006096805518674765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03394838407547689</v>
+        <v>0.03309910817832149</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.038283041953067</v>
+        <v>0.04090107135673861</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04831076809051411</v>
+        <v>0.04614844263962323</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03089420304888856</v>
+        <v>0.03014186291110749</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06262096586304733</v>
+        <v>0.06107010162574621</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02680995041772366</v>
+        <v>0.02696188368531471</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03016274964078629</v>
+        <v>0.02977320100826899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02698240523241645</v>
+        <v>0.0268748586770983</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04882062655623493</v>
+        <v>0.04892376638074574</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03872607797091985</v>
+        <v>0.03889034669298826</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04339891166245902</v>
+        <v>0.04419626735974533</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03917486330257497</v>
+        <v>0.03908237325175844</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06281987581602021</v>
+        <v>0.06230767318232894</v>
       </c>
     </row>
     <row r="16">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>58632</v>
+        <v>58628</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57848</v>
+        <v>58968</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47728</v>
+        <v>47688</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>61402</v>
+        <v>61524</v>
       </c>
     </row>
     <row r="7">
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>90916</v>
+        <v>90818</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>92625</v>
+        <v>93893</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>76779</v>
+        <v>76422</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>89344</v>
+        <v>90508</v>
       </c>
     </row>
     <row r="8">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13349</v>
+        <v>12868</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29626</v>
+        <v>28785</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28367</v>
+        <v>27906</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>68943</v>
+        <v>68872</v>
       </c>
     </row>
     <row r="11">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31845</v>
+        <v>32174</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53590</v>
+        <v>54731</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>53927</v>
+        <v>53411</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>100348</v>
+        <v>102273</v>
       </c>
     </row>
     <row r="12">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5761</v>
+        <v>6168</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4284</v>
+        <v>4260</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2962</v>
+        <v>3334</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23988</v>
+        <v>23388</v>
       </c>
     </row>
     <row r="15">
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21110</v>
+        <v>22553</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23246</v>
+        <v>22206</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16896</v>
+        <v>16484</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>44248</v>
+        <v>43153</v>
       </c>
     </row>
     <row r="16">
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>87844</v>
+        <v>88342</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>103084</v>
+        <v>101753</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>91136</v>
+        <v>90773</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>170881</v>
+        <v>171242</v>
       </c>
     </row>
     <row r="19">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>126888</v>
+        <v>127426</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>148320</v>
+        <v>151045</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>132318</v>
+        <v>132005</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>219881</v>
+        <v>218088</v>
       </c>
     </row>
     <row r="20">
